--- a/Project Management Crash Course-BC tasks/S_PM_07/Book1.xlsx
+++ b/Project Management Crash Course-BC tasks/S_PM_07/Book1.xlsx
@@ -14,11 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -272,6 +267,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>7000</c:v>
                 </c:pt>
@@ -560,45 +558,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet 1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,7 +839,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,6 +868,9 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
